--- a/02.测试基础学习/assets/01.认识测试.xlsx
+++ b/02.测试基础学习/assets/01.认识测试.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B0A7C2-CB38-4A1D-BAB1-A1FC96DE7244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4488CD57-8F63-404E-A067-26B39270E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="缺陷管理作业" sheetId="1" r:id="rId1"/>
+    <sheet name="用例格式说明" sheetId="2" r:id="rId1"/>
+    <sheet name="等价类划分" sheetId="3" r:id="rId2"/>
+    <sheet name="边界值" sheetId="4" r:id="rId3"/>
+    <sheet name="缺陷管理作业" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
   <si>
     <t>缺陷ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +187,688 @@
 2.回车确定
 预期结果：失败（输入文字应大于1位）
 实际结果：成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目/模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_login_002</t>
+  </si>
+  <si>
+    <t>wx_login_003</t>
+  </si>
+  <si>
+    <t>wx_login_004</t>
+  </si>
+  <si>
+    <t>wx_login_005</t>
+  </si>
+  <si>
+    <t>预期结果（测试点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行此用例之前需要完成的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.
+2.
+3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行用例的关键数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行用例期望得到的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功（刷脸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0~P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开微信登录刷脸页面
+2.脸认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.刷脸
+2.登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功，跳转到个人通信录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败（密码错误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录手机已注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入手机号
+2.输入密码
+3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的手机号和错误的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆失败，提示密码错误请重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_login_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.明确需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.划分有效、无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.提取数据设计用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_login_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（8位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0·</t>
+  </si>
+  <si>
+    <t>P0·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开验证程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入QQ号
+2.点击验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_login_02</t>
+  </si>
+  <si>
+    <t>qq_login_03</t>
+  </si>
+  <si>
+    <t>qq_login_04</t>
+  </si>
+  <si>
+    <t>2.打开验证程序</t>
+  </si>
+  <si>
+    <t>不合法（5位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（11位自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（8位非自然数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefgj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5位自然数、11位自然数、8位非自然数</t>
+  </si>
+  <si>
+    <t>8位自然数</t>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度、类型、规则</t>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 空
+2、3位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、0开头
+2、1开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向：2条
+逆向：8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quhao_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quhao_002</t>
+  </si>
+  <si>
+    <t>quhao_003</t>
+  </si>
+  <si>
+    <t>quhao_004</t>
+  </si>
+  <si>
+    <t>quhao_005</t>
+  </si>
+  <si>
+    <t>quhao_006</t>
+  </si>
+  <si>
+    <t>quhao_007</t>
+  </si>
+  <si>
+    <t>quhao_008</t>
+  </si>
+  <si>
+    <t>quhao_009</t>
+  </si>
+  <si>
+    <t>quhao_010</t>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>电话通信良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入电话
+2、拨打电话</t>
+  </si>
+  <si>
+    <t>1、输入电话
+2、拨打电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+234+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>234+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+234+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+23+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+234+123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc+234+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+abc+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+234+abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+034+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123+134+1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上点：0、30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内点：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt_002</t>
+  </si>
+  <si>
+    <t>bt_003</t>
+  </si>
+  <si>
+    <t>bt_004</t>
+  </si>
+  <si>
+    <t>bt_005</t>
+  </si>
+  <si>
+    <t>bt_006</t>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789012345678901234567aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789012345678901234567890a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567890asdfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题长度为30位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题长度为1位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题长度为29位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（标题长度为15位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（标题长度为31位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（标题长度为0位字符）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号为2位数字+3位开头非0非1数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号3位数字+2位开头非0非1数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号为3位数字+3位开头非0非1数字前缀码+3位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号3位非数字+3位开头非0非1数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号3位数字+3位非数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号3位数字+3位开头非0非1数字前缀码+4位非数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号3位数字+3位开头0数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（区号3位数字+3位开头1数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（区号3位数字+3位开头非0非1数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（区号为空+3位开头非0非1数字前缀码+4位数字后缀码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上点：6、10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内点：8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_002</t>
+  </si>
+  <si>
+    <t>qq_003</t>
+  </si>
+  <si>
+    <t>qq_004</t>
+  </si>
+  <si>
+    <t>qq_005</t>
+  </si>
+  <si>
+    <t>qq_006</t>
+  </si>
+  <si>
+    <t>qq_007</t>
+  </si>
+  <si>
+    <t>合法（6位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（10位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（5位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（7位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（9位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（11位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（8位QQ号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>离点：5、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7、9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、11</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>离点：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、31</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：红色的用例位删除用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +876,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +900,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +938,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,11 +974,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -264,6 +1092,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -282,6 +1176,241 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1447177</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DEFFC5-52C3-3118-2E3D-9EA62E059D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="2676525"/>
+          <a:ext cx="4980952" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189752</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60FEC7D-A2A9-5894-766D-75556699D4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="38100"/>
+          <a:ext cx="5980952" cy="1276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504324</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8D50FA-ED6B-9048-9439-568A5B2F6B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="4448175"/>
+          <a:ext cx="4009524" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342265</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996227A9-2D49-F787-071B-AAB476728DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="209550"/>
+          <a:ext cx="5076190" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104265</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353A60F4-01EB-C2E3-7E5C-118B379D59CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="1828800"/>
+          <a:ext cx="4076190" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -592,11 +1721,1261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324AFA7-A64C-4282-8FFE-FDB3D75736B8}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE59A7B-C3D0-4960-A29D-F72E78E9E357}">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="8">
+        <v>12345678</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12345</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="8">
+        <v>12345678910</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DB56BD-3795-402E-946D-A1C4B23AF599}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="30">
+        <v>123456</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
+        <v>12345</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34">
+        <v>1324567</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34">
+        <v>123345567</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11">
+        <v>12345678901</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="31">
+        <v>12345678</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/02.测试基础学习/assets/01.认识测试.xlsx
+++ b/02.测试基础学习/assets/01.认识测试.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4488CD57-8F63-404E-A067-26B39270E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7ADD0D-8799-49B8-9ABF-D754727EAFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例格式说明" sheetId="2" r:id="rId1"/>
     <sheet name="等价类划分" sheetId="3" r:id="rId2"/>
     <sheet name="边界值" sheetId="4" r:id="rId3"/>
-    <sheet name="缺陷管理作业" sheetId="1" r:id="rId4"/>
+    <sheet name="判定表法" sheetId="5" r:id="rId4"/>
+    <sheet name="缺陷管理作业" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="229">
   <si>
     <t>缺陷ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -869,6 +870,126 @@
   </si>
   <si>
     <t>注：红色的用例位删除用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd_002</t>
+  </si>
+  <si>
+    <t>bd_003</t>
+  </si>
+  <si>
+    <t>bd_004</t>
+  </si>
+  <si>
+    <t>不允许主被叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许主被叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（未欠费+关机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（未欠费+未关机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（欠费+未关机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（欠费+关机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额是否大于500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一列字符是否是A或B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二列是否是数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否输出信息L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否输出信息M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否没有M、L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1104,8 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1117,17 +1237,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1151,13 +1262,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1411,6 +1526,143 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>618023</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1555600-AAA3-873F-D090-1DF24458B1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="66675"/>
+          <a:ext cx="8819048" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380183</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA6EC0E-0FFF-F0FD-B262-31052B5D670F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2381250"/>
+          <a:ext cx="6533333" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437581</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEB4700-3DCA-8BD0-66DF-1213B8CF4249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="4543425"/>
+          <a:ext cx="4552381" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2070,84 +2322,84 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
@@ -2158,16 +2410,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -2175,102 +2427,102 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2561,92 +2813,92 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2663,11 +2915,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DB56BD-3795-402E-946D-A1C4B23AF599}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2707,74 +2959,66 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="31" t="s">
         <v>80</v>
       </c>
       <c r="I5" t="s">
@@ -2782,20 +3026,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="22" t="s">
         <v>88</v>
       </c>
       <c r="I6" t="s">
@@ -2803,20 +3043,20 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="25" t="s">
         <v>80</v>
       </c>
       <c r="I7" t="s">
@@ -2824,20 +3064,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="30">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26">
         <v>123456</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="20" t="s">
         <v>80</v>
       </c>
       <c r="I11" t="s">
@@ -2845,20 +3085,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>1234567890</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="22" t="s">
         <v>80</v>
       </c>
       <c r="I12" t="s">
@@ -2866,20 +3102,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>12345</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="22" t="s">
         <v>88</v>
       </c>
       <c r="I13" t="s">
@@ -2887,79 +3119,75 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30">
         <v>1324567</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30">
         <v>123345567</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>12345678901</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="31">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="27">
         <v>12345678</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J41" s="37" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="33" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2971,6 +3199,498 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A647D19E-65D7-4B82-9AC6-FCBFD334B132}">
+  <dimension ref="A1:U30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>

--- a/02.测试基础学习/assets/01.认识测试.xlsx
+++ b/02.测试基础学习/assets/01.认识测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7ADD0D-8799-49B8-9ABF-D754727EAFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7054145F-B079-4FB5-83F0-9E8333316E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="2400" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例格式说明" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="边界值" sheetId="4" r:id="rId3"/>
     <sheet name="判定表法" sheetId="5" r:id="rId4"/>
     <sheet name="缺陷管理作业" sheetId="1" r:id="rId5"/>
+    <sheet name="项目实战" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="302">
   <si>
     <t>缺陷ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,12 +993,301 @@
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_002</t>
+  </si>
+  <si>
+    <t>login_003</t>
+  </si>
+  <si>
+    <t>login_004</t>
+  </si>
+  <si>
+    <t>login_005</t>
+  </si>
+  <si>
+    <t>1.保持网络通畅</t>
+  </si>
+  <si>
+    <t>1.保持网络通畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在登录文本框输入测试数据
+2.光标点击验证码文本框或其他非登录文本框位置</t>
+  </si>
+  <si>
+    <t>1.在登录文本框输入测试数据
+2.光标点击验证码文本框或其他非登录文本框位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_007</t>
+  </si>
+  <si>
+    <t>login_008</t>
+  </si>
+  <si>
+    <t>1.在登录文本框输入合法手机号
+2.点击发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在登录文本框输入不合法手机号
+2.点击发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出“点击按钮进行验证”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示手机号不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_009</t>
+  </si>
+  <si>
+    <t>login_010</t>
+  </si>
+  <si>
+    <t>login_011</t>
+  </si>
+  <si>
+    <t>1.拖拽图形到指定位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未拖拽图形到指定位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未拖拽图形到指定位置超过5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晃动提醒，滑块回到初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示尝试过多，请点击重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_012</t>
+  </si>
+  <si>
+    <t>login_013</t>
+  </si>
+  <si>
+    <t>login_014</t>
+  </si>
+  <si>
+    <t>1.输入正确手机号
+2.成功发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确验证码
+2.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确验证码
+2.勾选用户协议
+3.点击登路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（输入正确验证码，并勾选协议，点击登录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（输入正确验证码，未勾选协议，点击登录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示请勾选协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（验证码界面，拖拽图形失败超过5次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（验证码界面，拖拽图形未到指定位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（验证码界面，拖拽图形到指定位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（点击发送验证码，若手机号文本框状态为绿色，弹出“点击按钮进行验证”）</t>
+  </si>
+  <si>
+    <t>不合法（点击发送验证码，若果手机号文本框状态为红色，提示手机号不正确）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（输入错误验证码，并勾选协议，点击登录）</t>
+  </si>
+  <si>
+    <t>不合法（输入空验证码，并勾选协议，点击登录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（输入过期验证码，并勾选协议，点击登录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_015</t>
+  </si>
+  <si>
+    <t>login_016</t>
+  </si>
+  <si>
+    <t>显示验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入错误验证码
+2.勾选用户协议
+3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入空验证码
+2.勾选用户协议
+3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入过期验证码
+2.勾选用户协议
+3.点击登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确手机号
+2.成功发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1sdeuzxy-s5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_017</t>
+  </si>
+  <si>
+    <t>1.保持网络通畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在登录文本框输入测试数据
+2.光标点击验证码文本框或其他非登录文本框位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（手机号为长度12位数字，失去焦点后显示红色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（手机号为长度10位数字，失去焦点后显示红色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法（手机号为长度11位数字，失去焦点后显示绿色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（手机号为长度11位非数字，失去焦点后显示红色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（手机号为长度11位数字（非手机段），失去焦点后显示红色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（手机号为长度11位数字（未注册），失去焦点后显示红色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login+006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法（手机号为空，失去焦点后显示红色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passage_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,8 +1335,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1372,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1269,10 +1591,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2137,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE59A7B-C3D0-4960-A29D-F72E78E9E357}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -2410,7 +2794,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="55" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2427,7 +2811,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
@@ -2439,7 +2823,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="12" t="s">
         <v>94</v>
       </c>
@@ -2451,7 +2835,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="55" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2465,7 +2849,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="14" t="s">
         <v>93</v>
       </c>
@@ -2477,7 +2861,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="12" t="s">
         <v>94</v>
       </c>
@@ -2489,7 +2873,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="55" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2503,7 +2887,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="14" t="s">
         <v>93</v>
       </c>
@@ -2515,7 +2899,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="12" t="s">
         <v>94</v>
       </c>
@@ -3202,9 +3586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A647D19E-65D7-4B82-9AC6-FCBFD334B132}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3261,14 +3645,9 @@
       <c r="A3" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
       <c r="H3" s="22" t="s">
         <v>209</v>
       </c>
@@ -3277,14 +3656,9 @@
       <c r="A4" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
       <c r="H4" s="22" t="s">
         <v>210</v>
       </c>
@@ -3892,4 +4266,545 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AADE62-11F4-464A-A73A-62B7AF678D78}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="35">
+        <v>13065467891</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1306546789</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="50">
+        <v>130654678912</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="35">
+        <v>23065467891</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="40">
+        <v>13056789345</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="40">
+        <v>130345</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>